--- a/Coop_Next/Assets/Docs/CoopNext_NumericalDesign.xlsx
+++ b/Coop_Next/Assets/Docs/CoopNext_NumericalDesign.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huayu Yang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Owlies_Project\Coop_Next\Coop_Next\Assets\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5F8380B0-AAD8-465E-BABD-35000C5E5CD4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4EBB47CD-7CCE-49A0-B9C5-06A39C71849E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,13 +16,14 @@
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
     <sheet name="Enemy Waves" sheetId="2" r:id="rId2"/>
     <sheet name="Building" sheetId="3" r:id="rId3"/>
+    <sheet name="Wave" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>Average Monster</t>
   </si>
@@ -131,6 +132,54 @@
   <si>
     <t>Wave strength ratio combined</t>
   </si>
+  <si>
+    <t>Attack Buff Tower 1</t>
+  </si>
+  <si>
+    <t>Attack Buff Tower 2</t>
+  </si>
+  <si>
+    <t>Attack Buff Tower 3</t>
+  </si>
+  <si>
+    <t>Attack Range</t>
+  </si>
+  <si>
+    <t>Healing Tower 1</t>
+  </si>
+  <si>
+    <t>Healing Tower 2</t>
+  </si>
+  <si>
+    <t>Healing Tower 3</t>
+  </si>
+  <si>
+    <t>Wood Trap</t>
+  </si>
+  <si>
+    <t>Stone Trap</t>
+  </si>
+  <si>
+    <t>Iron Trap</t>
+  </si>
+  <si>
+    <t>Flame Thrower 1</t>
+  </si>
+  <si>
+    <t>Flame Thrower 2</t>
+  </si>
+  <si>
+    <t>Flame Thrower 3</t>
+  </si>
+  <si>
+    <t>Catapult 1</t>
+  </si>
+  <si>
+    <t>Catapult 2</t>
+  </si>
+  <si>
+    <t>Catapult 3</t>
+  </si>
 </sst>
 </file>
 
@@ -224,11 +273,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3125,7 +3174,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Building!$J$1</c:f>
+              <c:f>Wave!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3148,7 +3197,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Building!$I$2:$I$31</c:f>
+              <c:f>Wave!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3247,7 +3296,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Building!$J$2:$J$31</c:f>
+              <c:f>Wave!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3347,7 +3396,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1CD7-41F9-B90C-9CEFFA164729}"/>
+              <c16:uniqueId val="{00000000-43C3-4AD2-8CAA-37172CC891AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3570,7 +3619,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Building!$F$18</c:f>
+              <c:f>Wave!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3593,7 +3642,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Building!$E$19:$E$48</c:f>
+              <c:f>Wave!$J$2:$J$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3692,7 +3741,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Building!$F$19:$F$48</c:f>
+              <c:f>Wave!$K$2:$K$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3792,7 +3841,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DF46-4BC3-8EE1-EE426B11F114}"/>
+              <c16:uniqueId val="{00000000-39EC-40A8-9BD7-550F22D79922}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8046,27 +8095,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79BA722F-B3D9-47CF-9236-F79767251129}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E3C9C8B-3308-48A6-A798-159EA2066CA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8082,27 +8133,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>919162</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{387E83A4-2135-40B5-8119-B030B4E53B87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB8BD5C-ECBF-4156-9CD1-08A751B64E1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8443,40 +8496,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="6"/>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
     </row>
     <row r="2" spans="1:25" ht="17.25" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -8638,7 +8691,7 @@
         <v>117</v>
       </c>
       <c r="C4" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A3)))</f>
+        <f t="shared" ref="C4:C32" si="0">INT(C$3+LOG10(C$3+POWER(2,A3)))</f>
         <v>11</v>
       </c>
       <c r="D4" s="7">
@@ -8650,11 +8703,11 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7">
-        <f t="shared" ref="G4:G32" si="0">INT(B4*1.5)</f>
+        <f t="shared" ref="G4:G32" si="1">INT(B4*1.5)</f>
         <v>175</v>
       </c>
       <c r="H4" s="7">
-        <f t="shared" ref="H4:H32" si="1">INT(C4*0.6)</f>
+        <f t="shared" ref="H4:H32" si="2">INT(C4*0.6)</f>
         <v>6</v>
       </c>
       <c r="I4" s="7">
@@ -8666,11 +8719,11 @@
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="7">
-        <f t="shared" ref="L4:L32" si="2">INT(B4*0.5)</f>
+        <f t="shared" ref="L4:L32" si="3">INT(B4*0.5)</f>
         <v>58</v>
       </c>
       <c r="M4" s="7">
-        <f t="shared" ref="M4:M32" si="3">INT(C4*(1 + INT(N4/D4 + 1)*0.1))</f>
+        <f t="shared" ref="M4:M32" si="4">INT(C4*(1 + INT(N4/D4 + 1)*0.1))</f>
         <v>13</v>
       </c>
       <c r="N4" s="6">
@@ -8682,11 +8735,11 @@
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="7">
-        <f t="shared" ref="Q4:Q32" si="4">INT(B4*2)</f>
+        <f t="shared" ref="Q4:Q32" si="5">INT(B4*2)</f>
         <v>234</v>
       </c>
       <c r="R4" s="7">
-        <f t="shared" ref="R4:R32" si="5">M4</f>
+        <f t="shared" ref="R4:R32" si="6">M4</f>
         <v>13</v>
       </c>
       <c r="S4" s="8">
@@ -8698,11 +8751,11 @@
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="7">
-        <f t="shared" ref="V4:V32" si="6">INT(B4*2.5)</f>
+        <f t="shared" ref="V4:V32" si="7">INT(B4*2.5)</f>
         <v>292</v>
       </c>
       <c r="W4" s="7">
-        <f t="shared" ref="W4:W32" si="7">INT(C4*2)</f>
+        <f t="shared" ref="W4:W32" si="8">INT(C4*2)</f>
         <v>22</v>
       </c>
       <c r="X4" s="6">
@@ -8718,11 +8771,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <f t="shared" ref="B5:B32" si="8">INT(B$3*LOG10(5*(A5 + 1)))</f>
+        <f t="shared" ref="B5:B32" si="9">INT(B$3*LOG10(5*(A5 + 1)))</f>
         <v>130</v>
       </c>
       <c r="C5" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A4)))</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D5" s="7">
@@ -8734,11 +8787,11 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>195</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I5" s="7">
@@ -8750,11 +8803,11 @@
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="M5" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="N5" s="6">
@@ -8766,11 +8819,11 @@
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="R5" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="S5" s="8">
@@ -8782,11 +8835,11 @@
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>325</v>
       </c>
       <c r="W5" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="X5" s="6">
@@ -8802,11 +8855,11 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>139</v>
       </c>
       <c r="C6" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A5)))</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D6" s="7">
@@ -8818,11 +8871,11 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>208</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I6" s="7">
@@ -8834,11 +8887,11 @@
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="M6" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="N6" s="6">
@@ -8850,11 +8903,11 @@
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>278</v>
       </c>
       <c r="R6" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="S6" s="8">
@@ -8866,11 +8919,11 @@
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>347</v>
       </c>
       <c r="W6" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="X6" s="6">
@@ -8886,11 +8939,11 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>147</v>
       </c>
       <c r="C7" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A6)))</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D7" s="7">
@@ -8902,11 +8955,11 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I7" s="7">
@@ -8918,11 +8971,11 @@
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="M7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="N7" s="6">
@@ -8934,11 +8987,11 @@
       </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>294</v>
       </c>
       <c r="R7" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="S7" s="9">
@@ -8950,11 +9003,11 @@
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>367</v>
       </c>
       <c r="W7" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="X7" s="6">
@@ -8970,11 +9023,11 @@
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>154</v>
       </c>
       <c r="C8" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A7)))</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D8" s="7">
@@ -8986,11 +9039,11 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>231</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I8" s="7">
@@ -9002,11 +9055,11 @@
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="M8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="N8" s="6">
@@ -9018,11 +9071,11 @@
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>308</v>
       </c>
       <c r="R8" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="S8" s="8">
@@ -9034,11 +9087,11 @@
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>385</v>
       </c>
       <c r="W8" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="X8" s="6">
@@ -9054,11 +9107,11 @@
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>160</v>
       </c>
       <c r="C9" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A8)))</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D9" s="7">
@@ -9070,11 +9123,11 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I9" s="7">
@@ -9086,11 +9139,11 @@
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="M9" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="N9" s="6">
@@ -9102,11 +9155,11 @@
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>320</v>
       </c>
       <c r="R9" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="S9" s="8">
@@ -9118,11 +9171,11 @@
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="W9" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="X9" s="6">
@@ -9138,11 +9191,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>165</v>
       </c>
       <c r="C10" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A9)))</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D10" s="7">
@@ -9154,11 +9207,11 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>247</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I10" s="7">
@@ -9170,11 +9223,11 @@
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="M10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="N10" s="6">
@@ -9186,11 +9239,11 @@
       </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
       <c r="R10" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="S10" s="8">
@@ -9202,11 +9255,11 @@
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>412</v>
       </c>
       <c r="W10" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="X10" s="6">
@@ -9222,11 +9275,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>169</v>
       </c>
       <c r="C11" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A10)))</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D11" s="7">
@@ -9238,11 +9291,11 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>253</v>
       </c>
       <c r="H11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I11" s="7">
@@ -9254,11 +9307,11 @@
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="M11" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="N11" s="6">
@@ -9270,11 +9323,11 @@
       </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>338</v>
       </c>
       <c r="R11" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="S11" s="8">
@@ -9286,11 +9339,11 @@
       </c>
       <c r="U11" s="6"/>
       <c r="V11" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>422</v>
       </c>
       <c r="W11" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="X11" s="6">
@@ -9306,11 +9359,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>174</v>
       </c>
       <c r="C12" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A11)))</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D12" s="7">
@@ -9322,11 +9375,11 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>261</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I12" s="7">
@@ -9338,11 +9391,11 @@
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="M12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="N12" s="6">
@@ -9354,11 +9407,11 @@
       </c>
       <c r="P12" s="6"/>
       <c r="Q12" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>348</v>
       </c>
       <c r="R12" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="S12" s="9">
@@ -9370,11 +9423,11 @@
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>435</v>
       </c>
       <c r="W12" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="X12" s="9">
@@ -9390,11 +9443,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>177</v>
       </c>
       <c r="C13" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A12)))</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D13" s="7">
@@ -9406,11 +9459,11 @@
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>265</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I13" s="7">
@@ -9422,11 +9475,11 @@
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="M13" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="N13" s="6">
@@ -9438,11 +9491,11 @@
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>354</v>
       </c>
       <c r="R13" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="S13" s="8">
@@ -9454,11 +9507,11 @@
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>442</v>
       </c>
       <c r="W13" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="X13" s="6">
@@ -9474,11 +9527,11 @@
         <v>12</v>
       </c>
       <c r="B14" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>181</v>
       </c>
       <c r="C14" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A13)))</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D14" s="7">
@@ -9490,11 +9543,11 @@
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>271</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I14" s="7">
@@ -9506,11 +9559,11 @@
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="M14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="N14" s="6">
@@ -9522,11 +9575,11 @@
       </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>362</v>
       </c>
       <c r="R14" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="S14" s="8">
@@ -9538,11 +9591,11 @@
       </c>
       <c r="U14" s="6"/>
       <c r="V14" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>452</v>
       </c>
       <c r="W14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="X14" s="6">
@@ -9558,11 +9611,11 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>184</v>
       </c>
       <c r="C15" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A14)))</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D15" s="7">
@@ -9574,11 +9627,11 @@
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>276</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I15" s="7">
@@ -9590,11 +9643,11 @@
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="M15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="N15" s="6">
@@ -9606,11 +9659,11 @@
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>368</v>
       </c>
       <c r="R15" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="S15" s="8">
@@ -9622,11 +9675,11 @@
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>460</v>
       </c>
       <c r="W15" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="X15" s="6">
@@ -9642,11 +9695,11 @@
         <v>14</v>
       </c>
       <c r="B16" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>187</v>
       </c>
       <c r="C16" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A15)))</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D16" s="7">
@@ -9658,11 +9711,11 @@
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
       <c r="H16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I16" s="7">
@@ -9674,11 +9727,11 @@
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="M16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="N16" s="6">
@@ -9690,11 +9743,11 @@
       </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>374</v>
       </c>
       <c r="R16" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="S16" s="8">
@@ -9706,11 +9759,11 @@
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>467</v>
       </c>
       <c r="W16" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="X16" s="6">
@@ -9726,11 +9779,11 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>190</v>
       </c>
       <c r="C17" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A16)))</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D17" s="7">
@@ -9742,11 +9795,11 @@
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>285</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I17" s="7">
@@ -9758,11 +9811,11 @@
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="M17" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="N17" s="6">
@@ -9774,11 +9827,11 @@
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>380</v>
       </c>
       <c r="R17" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="S17" s="9">
@@ -9790,11 +9843,11 @@
       </c>
       <c r="U17" s="6"/>
       <c r="V17" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>475</v>
       </c>
       <c r="W17" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="X17" s="6">
@@ -9810,11 +9863,11 @@
         <v>16</v>
       </c>
       <c r="B18" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>192</v>
       </c>
       <c r="C18" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A17)))</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D18" s="7">
@@ -9826,11 +9879,11 @@
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>288</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I18" s="7">
@@ -9842,11 +9895,11 @@
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="M18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="N18" s="6">
@@ -9858,11 +9911,11 @@
       </c>
       <c r="P18" s="6"/>
       <c r="Q18" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>384</v>
       </c>
       <c r="R18" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="S18" s="8">
@@ -9874,11 +9927,11 @@
       </c>
       <c r="U18" s="6"/>
       <c r="V18" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
       <c r="W18" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="X18" s="6">
@@ -9894,11 +9947,11 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>195</v>
       </c>
       <c r="C19" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A18)))</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D19" s="7">
@@ -9910,11 +9963,11 @@
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>292</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="7">
@@ -9926,11 +9979,11 @@
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="N19" s="6">
@@ -9942,11 +9995,11 @@
       </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>390</v>
       </c>
       <c r="R19" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="S19" s="8">
@@ -9958,11 +10011,11 @@
       </c>
       <c r="U19" s="6"/>
       <c r="V19" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>487</v>
       </c>
       <c r="W19" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="X19" s="6">
@@ -9978,11 +10031,11 @@
         <v>18</v>
       </c>
       <c r="B20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>197</v>
       </c>
       <c r="C20" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A19)))</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D20" s="7">
@@ -9994,11 +10047,11 @@
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>295</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="7">
@@ -10010,11 +10063,11 @@
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="M20" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="N20" s="6">
@@ -10026,11 +10079,11 @@
       </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>394</v>
       </c>
       <c r="R20" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="S20" s="8">
@@ -10042,11 +10095,11 @@
       </c>
       <c r="U20" s="6"/>
       <c r="V20" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>492</v>
       </c>
       <c r="W20" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="X20" s="6">
@@ -10062,11 +10115,11 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="C21" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A20)))</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D21" s="7">
@@ -10078,11 +10131,11 @@
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="H21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I21" s="7">
@@ -10094,11 +10147,11 @@
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="M21" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="N21" s="6">
@@ -10110,11 +10163,11 @@
       </c>
       <c r="P21" s="6"/>
       <c r="Q21" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="R21" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="S21" s="8">
@@ -10126,11 +10179,11 @@
       </c>
       <c r="U21" s="6"/>
       <c r="V21" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="W21" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="X21" s="6">
@@ -10146,11 +10199,11 @@
         <v>20</v>
       </c>
       <c r="B22" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>202</v>
       </c>
       <c r="C22" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A21)))</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D22" s="7">
@@ -10162,11 +10215,11 @@
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>303</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I22" s="7">
@@ -10178,11 +10231,11 @@
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="M22" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="N22" s="6">
@@ -10194,11 +10247,11 @@
       </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>404</v>
       </c>
       <c r="R22" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="S22" s="9">
@@ -10210,11 +10263,11 @@
       </c>
       <c r="U22" s="6"/>
       <c r="V22" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>505</v>
       </c>
       <c r="W22" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="X22" s="9">
@@ -10230,11 +10283,11 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>204</v>
       </c>
       <c r="C23" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A22)))</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D23" s="7">
@@ -10246,11 +10299,11 @@
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>306</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I23" s="7">
@@ -10262,11 +10315,11 @@
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="M23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="N23" s="6">
@@ -10278,11 +10331,11 @@
       </c>
       <c r="P23" s="6"/>
       <c r="Q23" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>408</v>
       </c>
       <c r="R23" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="S23" s="8">
@@ -10294,11 +10347,11 @@
       </c>
       <c r="U23" s="6"/>
       <c r="V23" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>510</v>
       </c>
       <c r="W23" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="X23" s="6">
@@ -10314,11 +10367,11 @@
         <v>22</v>
       </c>
       <c r="B24" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>206</v>
       </c>
       <c r="C24" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A23)))</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D24" s="7">
@@ -10330,11 +10383,11 @@
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>309</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I24" s="7">
@@ -10346,11 +10399,11 @@
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="M24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="N24" s="6">
@@ -10362,11 +10415,11 @@
       </c>
       <c r="P24" s="6"/>
       <c r="Q24" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>412</v>
       </c>
       <c r="R24" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="S24" s="8">
@@ -10378,11 +10431,11 @@
       </c>
       <c r="U24" s="6"/>
       <c r="V24" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>515</v>
       </c>
       <c r="W24" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="X24" s="6">
@@ -10398,11 +10451,11 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>207</v>
       </c>
       <c r="C25" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A24)))</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D25" s="7">
@@ -10414,11 +10467,11 @@
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>310</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I25" s="7">
@@ -10430,11 +10483,11 @@
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="M25" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="N25" s="6">
@@ -10446,11 +10499,11 @@
       </c>
       <c r="P25" s="6"/>
       <c r="Q25" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>414</v>
       </c>
       <c r="R25" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="S25" s="8">
@@ -10462,11 +10515,11 @@
       </c>
       <c r="U25" s="6"/>
       <c r="V25" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>517</v>
       </c>
       <c r="W25" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="X25" s="6">
@@ -10482,11 +10535,11 @@
         <v>24</v>
       </c>
       <c r="B26" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>209</v>
       </c>
       <c r="C26" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A25)))</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D26" s="7">
@@ -10498,11 +10551,11 @@
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>313</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I26" s="7">
@@ -10514,11 +10567,11 @@
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="M26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="N26" s="6">
@@ -10530,11 +10583,11 @@
       </c>
       <c r="P26" s="6"/>
       <c r="Q26" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>418</v>
       </c>
       <c r="R26" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="S26" s="8">
@@ -10546,11 +10599,11 @@
       </c>
       <c r="U26" s="6"/>
       <c r="V26" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>522</v>
       </c>
       <c r="W26" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="X26" s="6">
@@ -10566,11 +10619,11 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>211</v>
       </c>
       <c r="C27" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A26)))</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D27" s="7">
@@ -10582,11 +10635,11 @@
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>316</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I27" s="7">
@@ -10598,11 +10651,11 @@
       </c>
       <c r="K27" s="8"/>
       <c r="L27" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="M27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="N27" s="6">
@@ -10614,11 +10667,11 @@
       </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>422</v>
       </c>
       <c r="R27" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="S27" s="9">
@@ -10630,11 +10683,11 @@
       </c>
       <c r="U27" s="6"/>
       <c r="V27" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>527</v>
       </c>
       <c r="W27" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="X27" s="6">
@@ -10650,11 +10703,11 @@
         <v>26</v>
       </c>
       <c r="B28" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>213</v>
       </c>
       <c r="C28" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A27)))</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D28" s="7">
@@ -10666,11 +10719,11 @@
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>319</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I28" s="7">
@@ -10682,11 +10735,11 @@
       </c>
       <c r="K28" s="8"/>
       <c r="L28" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="M28" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="N28" s="6">
@@ -10698,11 +10751,11 @@
       </c>
       <c r="P28" s="6"/>
       <c r="Q28" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>426</v>
       </c>
       <c r="R28" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="S28" s="8">
@@ -10714,11 +10767,11 @@
       </c>
       <c r="U28" s="6"/>
       <c r="V28" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>532</v>
       </c>
       <c r="W28" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="X28" s="6">
@@ -10734,11 +10787,11 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>214</v>
       </c>
       <c r="C29" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A28)))</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D29" s="7">
@@ -10750,11 +10803,11 @@
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>321</v>
       </c>
       <c r="H29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I29" s="7">
@@ -10766,11 +10819,11 @@
       </c>
       <c r="K29" s="8"/>
       <c r="L29" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="M29" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="N29" s="6">
@@ -10782,11 +10835,11 @@
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>428</v>
       </c>
       <c r="R29" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="S29" s="8">
@@ -10798,11 +10851,11 @@
       </c>
       <c r="U29" s="6"/>
       <c r="V29" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>535</v>
       </c>
       <c r="W29" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="X29" s="6">
@@ -10818,11 +10871,11 @@
         <v>28</v>
       </c>
       <c r="B30" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>216</v>
       </c>
       <c r="C30" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A29)))</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D30" s="7">
@@ -10834,11 +10887,11 @@
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I30" s="7">
@@ -10850,11 +10903,11 @@
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="M30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="N30" s="6">
@@ -10866,11 +10919,11 @@
       </c>
       <c r="P30" s="6"/>
       <c r="Q30" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>432</v>
       </c>
       <c r="R30" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="S30" s="8">
@@ -10882,11 +10935,11 @@
       </c>
       <c r="U30" s="6"/>
       <c r="V30" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>540</v>
       </c>
       <c r="W30" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="X30" s="6">
@@ -10902,11 +10955,11 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>217</v>
       </c>
       <c r="C31" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A30)))</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D31" s="7">
@@ -10918,11 +10971,11 @@
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>325</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I31" s="7">
@@ -10934,11 +10987,11 @@
       </c>
       <c r="K31" s="8"/>
       <c r="L31" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="M31" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="N31" s="6">
@@ -10950,11 +11003,11 @@
       </c>
       <c r="P31" s="6"/>
       <c r="Q31" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>434</v>
       </c>
       <c r="R31" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="S31" s="8">
@@ -10966,11 +11019,11 @@
       </c>
       <c r="U31" s="6"/>
       <c r="V31" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>542</v>
       </c>
       <c r="W31" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="X31" s="6">
@@ -10986,11 +11039,11 @@
         <v>30</v>
       </c>
       <c r="B32" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>219</v>
       </c>
       <c r="C32" s="7">
-        <f>INT(C$3+LOG10(C$3+POWER(2,A31)))</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D32" s="7">
@@ -11002,11 +11055,11 @@
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>328</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I32" s="7">
@@ -11018,11 +11071,11 @@
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="M32" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="N32" s="6">
@@ -11034,11 +11087,11 @@
       </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>438</v>
       </c>
       <c r="R32" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="S32" s="9">
@@ -11050,11 +11103,11 @@
       </c>
       <c r="U32" s="6"/>
       <c r="V32" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>547</v>
       </c>
       <c r="W32" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="X32" s="9">
@@ -11252,7 +11305,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I31"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -11269,1037 +11322,1037 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>2</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>0</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>0</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>0</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>0</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <f>B2*Enemy!E3+C2*Enemy!J3+D2*Enemy!O3+E2*Enemy!T3+F2*Enemy!Y3</f>
         <v>100</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <f>G2*3</f>
         <v>300</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <f>B2*Enemy!C3+C2*Enemy!H3+D2*Enemy!M3+E2*Enemy!R3+F2*Enemy!W3</f>
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>2</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>0</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>0</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>0</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <f>B3*Enemy!E4+C3*Enemy!J4+D3*Enemy!O4+E3*Enemy!T4+F3*Enemy!Y4</f>
         <v>128.69999999999999</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <f t="shared" ref="H3:H31" si="0">G3*3</f>
         <v>386.09999999999997</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <f>B3*Enemy!C4+C3*Enemy!H4+D3*Enemy!M4+E3*Enemy!R4+F3*Enemy!W4</f>
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>0</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>0</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>0</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <f>B4*Enemy!E5+C4*Enemy!J5+D4*Enemy!O5+E4*Enemy!T5+F4*Enemy!Y5</f>
         <v>172.25</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <f t="shared" si="0"/>
         <v>516.75</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <f>B4*Enemy!C5+C4*Enemy!H5+D4*Enemy!M5+E4*Enemy!R5+F4*Enemy!W5</f>
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>1</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>0</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>0</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <f>B5*Enemy!E6+C5*Enemy!J6+D5*Enemy!O6+E5*Enemy!T6+F5*Enemy!Y6</f>
         <v>251.37500000000003</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <f t="shared" si="0"/>
         <v>754.12500000000011</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <f>B5*Enemy!C6+C5*Enemy!H6+D5*Enemy!M6+E5*Enemy!R6+F5*Enemy!W6</f>
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>1</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>0</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <f>B6*Enemy!E7+C6*Enemy!J7+D6*Enemy!O7+E6*Enemy!T7+F6*Enemy!Y7</f>
         <v>456.97500000000002</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <f t="shared" si="0"/>
         <v>1370.9250000000002</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <f>B6*Enemy!C7+C6*Enemy!H7+D6*Enemy!M7+E6*Enemy!R7+F6*Enemy!W7</f>
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>2</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>2</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>0</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <f>B7*Enemy!E8+C7*Enemy!J8+D7*Enemy!O8+E7*Enemy!T8+F7*Enemy!Y8</f>
         <v>388.85</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <f t="shared" si="0"/>
         <v>1166.5500000000002</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <f>B7*Enemy!C8+C7*Enemy!H8+D7*Enemy!M8+E7*Enemy!R8+F7*Enemy!W8</f>
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>2</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>2</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>2</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>0</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>0</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <f>B8*Enemy!E9+C8*Enemy!J9+D8*Enemy!O9+E8*Enemy!T9+F8*Enemy!Y9</f>
         <v>404</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <f t="shared" si="0"/>
         <v>1212</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <f>B8*Enemy!C9+C8*Enemy!H9+D8*Enemy!M9+E8*Enemy!R9+F8*Enemy!W9</f>
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>3</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>2</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>2</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>0</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>0</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <f>B9*Enemy!E10+C9*Enemy!J10+D9*Enemy!O10+E9*Enemy!T10+F9*Enemy!Y10</f>
         <v>555.65</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <f t="shared" si="0"/>
         <v>1666.9499999999998</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <f>B9*Enemy!C10+C9*Enemy!H10+D9*Enemy!M10+E9*Enemy!R10+F9*Enemy!W10</f>
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>3</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>2</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>3</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>0</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>0</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <f>B10*Enemy!E11+C10*Enemy!J11+D10*Enemy!O11+E10*Enemy!T11+F10*Enemy!Y11</f>
         <v>770.75</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <f t="shared" si="0"/>
         <v>2312.25</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <f>B10*Enemy!C11+C10*Enemy!H11+D10*Enemy!M11+E10*Enemy!R11+F10*Enemy!W11</f>
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>0</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>0</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>2</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>1</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <f>B11*Enemy!E12+C11*Enemy!J12+D11*Enemy!O12+E11*Enemy!T12+F11*Enemy!Y12</f>
         <v>1357.2</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <f t="shared" si="0"/>
         <v>4071.6000000000004</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <f>B11*Enemy!C12+C11*Enemy!H12+D11*Enemy!M12+E11*Enemy!R12+F11*Enemy!W12</f>
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>3</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>2</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>3</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>0</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>0</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <f>B12*Enemy!E13+C12*Enemy!J13+D12*Enemy!O13+E12*Enemy!T13+F12*Enemy!Y13</f>
         <v>860.3</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <f t="shared" si="0"/>
         <v>2580.8999999999996</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <f>B12*Enemy!C13+C12*Enemy!H13+D12*Enemy!M13+E12*Enemy!R13+F12*Enemy!W13</f>
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>3</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>3</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>3</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>0</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>0</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <f>B13*Enemy!E14+C13*Enemy!J14+D13*Enemy!O14+E13*Enemy!T14+F13*Enemy!Y14</f>
         <v>927.22500000000002</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <f t="shared" si="0"/>
         <v>2781.6750000000002</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <f>B13*Enemy!C14+C13*Enemy!H14+D13*Enemy!M14+E13*Enemy!R14+F13*Enemy!W14</f>
         <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>4</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>3</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>3</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>0</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <f>B14*Enemy!E15+C14*Enemy!J15+D14*Enemy!O15+E14*Enemy!T15+F14*Enemy!Y15</f>
         <v>1064.8999999999999</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <f t="shared" si="0"/>
         <v>3194.7</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
         <f>B14*Enemy!C15+C14*Enemy!H15+D14*Enemy!M15+E14*Enemy!R15+F14*Enemy!W15</f>
         <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>4</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>3</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>4</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>0</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>0</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <f>B15*Enemy!E16+C15*Enemy!J16+D15*Enemy!O16+E15*Enemy!T16+F15*Enemy!Y16</f>
         <v>1228.4000000000001</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <f t="shared" si="0"/>
         <v>3685.2000000000003</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <f>B15*Enemy!C16+C15*Enemy!H16+D15*Enemy!M16+E15*Enemy!R16+F15*Enemy!W16</f>
         <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>4</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>4</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>4</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>2</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>0</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <f>B16*Enemy!E17+C16*Enemy!J17+D16*Enemy!O17+E16*Enemy!T17+F16*Enemy!Y17</f>
         <v>2128</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <f t="shared" si="0"/>
         <v>6384</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <f>B16*Enemy!C17+C16*Enemy!H17+D16*Enemy!M17+E16*Enemy!R17+F16*Enemy!W17</f>
         <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>5</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>4</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>5</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>0</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>0</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <f>B17*Enemy!E18+C17*Enemy!J18+D17*Enemy!O18+E17*Enemy!T18+F17*Enemy!Y18</f>
         <v>1996.7999999999997</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <f t="shared" si="0"/>
         <v>5990.4</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <f>B17*Enemy!C18+C17*Enemy!H18+D17*Enemy!M18+E17*Enemy!R18+F17*Enemy!W18</f>
         <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>5</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>5</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>5</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>0</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>0</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <f>B18*Enemy!E19+C18*Enemy!J19+D18*Enemy!O19+E18*Enemy!T19+F18*Enemy!Y19</f>
         <v>2139.5</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <f t="shared" si="0"/>
         <v>6418.5</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <f>B18*Enemy!C19+C18*Enemy!H19+D18*Enemy!M19+E18*Enemy!R19+F18*Enemy!W19</f>
         <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>6</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>5</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>5</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>0</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>0</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <f>B19*Enemy!E20+C19*Enemy!J20+D19*Enemy!O20+E19*Enemy!T20+F19*Enemy!Y20</f>
         <v>2481.25</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <f t="shared" si="0"/>
         <v>7443.75</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="10">
         <f>B19*Enemy!C20+C19*Enemy!H20+D19*Enemy!M20+E19*Enemy!R20+F19*Enemy!W20</f>
         <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>6</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>5</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>6</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>0</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>0</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <f>B20*Enemy!E21+C20*Enemy!J21+D20*Enemy!O21+E20*Enemy!T21+F20*Enemy!Y21</f>
         <v>2715</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <f t="shared" si="0"/>
         <v>8145</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <f>B20*Enemy!C21+C20*Enemy!H21+D20*Enemy!M21+E20*Enemy!R21+F20*Enemy!W21</f>
         <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>6</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>3</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>3</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>2</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>1</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <f>B21*Enemy!E22+C21*Enemy!J22+D21*Enemy!O22+E21*Enemy!T22+F21*Enemy!Y22</f>
         <v>3562.7750000000001</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <f t="shared" si="0"/>
         <v>10688.325000000001</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="10">
         <f>B21*Enemy!C22+C21*Enemy!H22+D21*Enemy!M22+E21*Enemy!R22+F21*Enemy!W22</f>
         <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>6</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>5</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>6</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>0</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>0</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <f>B22*Enemy!E23+C22*Enemy!J23+D22*Enemy!O23+E22*Enemy!T23+F22*Enemy!Y23</f>
         <v>3197.7</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <f t="shared" si="0"/>
         <v>9593.0999999999985</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="10">
         <f>B22*Enemy!C23+C22*Enemy!H23+D22*Enemy!M23+E22*Enemy!R23+F22*Enemy!W23</f>
         <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>6</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>6</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>6</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>0</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>0</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <f>B23*Enemy!E24+C23*Enemy!J24+D23*Enemy!O24+E23*Enemy!T24+F23*Enemy!Y24</f>
         <v>3368.1</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="10">
         <f t="shared" si="0"/>
         <v>10104.299999999999</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="10">
         <f>B23*Enemy!C24+C23*Enemy!H24+D23*Enemy!M24+E23*Enemy!R24+F23*Enemy!W24</f>
         <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>7</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>6</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>6</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>0</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <v>0</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <f>B24*Enemy!E25+C24*Enemy!J25+D24*Enemy!O25+E24*Enemy!T25+F24*Enemy!Y25</f>
         <v>3541.2</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="10">
         <f t="shared" si="0"/>
         <v>10623.599999999999</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <f>B24*Enemy!C25+C24*Enemy!H25+D24*Enemy!M25+E24*Enemy!R25+F24*Enemy!W25</f>
         <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>7</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>6</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>7</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>0</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <v>0</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <f>B25*Enemy!E26+C25*Enemy!J26+D25*Enemy!O26+E25*Enemy!T26+F25*Enemy!Y26</f>
         <v>3835.5</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <f t="shared" si="0"/>
         <v>11506.5</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
         <f>B25*Enemy!C26+C25*Enemy!H26+D25*Enemy!M26+E25*Enemy!R26+F25*Enemy!W26</f>
         <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>7</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>6</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <v>7</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>2</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <v>0</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <f>B26*Enemy!E27+C26*Enemy!J27+D26*Enemy!O27+E26*Enemy!T27+F26*Enemy!Y27</f>
         <v>5617.3000000000011</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="10">
         <f t="shared" si="0"/>
         <v>16851.900000000001</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="10">
         <f>B26*Enemy!C27+C26*Enemy!H27+D26*Enemy!M27+E26*Enemy!R27+F26*Enemy!W27</f>
         <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>8</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <v>6</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <v>8</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>0</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <v>0</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <f>B27*Enemy!E28+C27*Enemy!J28+D27*Enemy!O28+E27*Enemy!T28+F27*Enemy!Y28</f>
         <v>4737.3999999999996</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="10">
         <f t="shared" si="0"/>
         <v>14212.199999999999</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="10">
         <f>B27*Enemy!C28+C27*Enemy!H28+D27*Enemy!M28+E27*Enemy!R28+F27*Enemy!W28</f>
         <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>8</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>7</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <v>8</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>0</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>0</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <f>B28*Enemy!E29+C28*Enemy!J29+D28*Enemy!O29+E28*Enemy!T29+F28*Enemy!Y29</f>
         <v>4932.7</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="10">
         <f t="shared" si="0"/>
         <v>14798.099999999999</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="10">
         <f>B28*Enemy!C29+C28*Enemy!H29+D28*Enemy!M29+E28*Enemy!R29+F28*Enemy!W29</f>
         <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>8</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>8</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <v>8</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>0</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <v>0</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="10">
         <f>B29*Enemy!E30+C29*Enemy!J30+D29*Enemy!O30+E29*Enemy!T30+F29*Enemy!Y30</f>
         <v>5335.2</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="10">
         <f t="shared" si="0"/>
         <v>16005.599999999999</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="10">
         <f>B29*Enemy!C30+C29*Enemy!H30+D29*Enemy!M30+E29*Enemy!R30+F29*Enemy!W30</f>
         <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>9</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>8</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <v>8</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <v>0</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>0</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <f>B30*Enemy!E31+C30*Enemy!J31+D30*Enemy!O31+E30*Enemy!T31+F30*Enemy!Y31</f>
         <v>5541.7</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="10">
         <f t="shared" si="0"/>
         <v>16625.099999999999</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="10">
         <f>B30*Enemy!C31+C30*Enemy!H31+D30*Enemy!M31+E30*Enemy!R31+F30*Enemy!W31</f>
         <v>426</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>9</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <v>4</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <v>4</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <v>2</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <v>1</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="10">
         <f>B31*Enemy!E32+C31*Enemy!J32+D31*Enemy!O32+E31*Enemy!T32+F31*Enemy!Y32</f>
         <v>6671.4</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="10">
         <f t="shared" si="0"/>
         <v>20014.199999999997</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="10">
         <f>B31*Enemy!C32+C31*Enemy!H32+D31*Enemy!M32+E31*Enemy!R32+F31*Enemy!W32</f>
         <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12309,29 +12362,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05850A5B-10AA-489B-AB7A-34C49D7159F1}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="26.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="13" width="23.85546875" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -12345,31 +12399,19 @@
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -12383,37 +12425,21 @@
         <v>40</v>
       </c>
       <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <f>C2/Enemy!E$3*D2*E2</f>
+      <c r="G2" s="1">
+        <f>C2/Enemy!E$3*D2*F2</f>
         <v>120</v>
       </c>
-      <c r="G2" s="2">
-        <f>C2/Enemy!E$3*D2*E2</f>
+      <c r="H2" s="2">
+        <f>C2/Enemy!E$3*D2*F2</f>
         <v>120</v>
       </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <f>'Enemy Waves'!H2/G$2</f>
-        <v>2.5</v>
-      </c>
-      <c r="K2">
-        <f>'Enemy Waves'!H2/G$2</f>
-        <v>2.5</v>
-      </c>
-      <c r="L2">
-        <f>'Enemy Waves'!H2/G$3</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="M2">
-        <f>'Enemy Waves'!H2/G$4</f>
-        <v>0.3125</v>
-      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -12427,37 +12453,21 @@
         <v>60</v>
       </c>
       <c r="E3" s="1">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="F3">
-        <f>C3/Enemy!E$12*D3*E3</f>
+      <c r="G3" s="1">
+        <f>C3/Enemy!E$12*D3*F3</f>
         <v>172.41379310344828</v>
       </c>
-      <c r="G3" s="2">
-        <f>C3/Enemy!E$3*D3*E3</f>
+      <c r="H3" s="2">
+        <f>C3/Enemy!E$3*D3*F3</f>
         <v>360</v>
       </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <f>'Enemy Waves'!H3/G$2</f>
-        <v>3.2174999999999998</v>
-      </c>
-      <c r="K3">
-        <f>'Enemy Waves'!H3/G$2</f>
-        <v>3.2174999999999998</v>
-      </c>
-      <c r="L3">
-        <f>'Enemy Waves'!H3/G$3</f>
-        <v>1.0725</v>
-      </c>
-      <c r="M3">
-        <f>'Enemy Waves'!H3/G$4</f>
-        <v>0.40218749999999998</v>
-      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -12471,899 +12481,1222 @@
         <v>80</v>
       </c>
       <c r="E4" s="1">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="F4">
-        <f>C4/Enemy!E$22*D4*E4</f>
+      <c r="G4" s="1">
+        <f>C4/Enemy!E$22*D4*F4</f>
         <v>316.83168316831683</v>
       </c>
-      <c r="G4" s="2">
-        <f>C4/Enemy!E$3*D4*E4</f>
+      <c r="H4" s="2">
+        <f>C4/Enemy!E$3*D4*F4</f>
         <v>960</v>
       </c>
-      <c r="I4" s="2">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
         <v>3</v>
       </c>
+      <c r="C8" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>150</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>150</v>
+      </c>
+      <c r="D16" s="1">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>100</v>
+      </c>
+      <c r="D18" s="1">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>150</v>
+      </c>
+      <c r="D19" s="1">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>200</v>
+      </c>
+      <c r="D20" s="1">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>100</v>
+      </c>
+      <c r="D23" s="1">
+        <v>40</v>
+      </c>
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>150</v>
+      </c>
+      <c r="D24" s="1">
+        <v>60</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>200</v>
+      </c>
+      <c r="D26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>300</v>
+      </c>
+      <c r="D27" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>400</v>
+      </c>
+      <c r="D28" s="1">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09801EB6-56B8-409A-AEC0-FC6F87649C70}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>'Enemy Waves'!H2/Building!H$2</f>
+        <v>2.5</v>
+      </c>
+      <c r="C2">
+        <f>'Enemy Waves'!H2/Building!H$2</f>
+        <v>2.5</v>
+      </c>
+      <c r="D2">
+        <f>'Enemy Waves'!H2/Building!H$3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E2">
+        <f>'Enemy Waves'!H2/Building!H$4</f>
+        <v>0.3125</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>Building!C$6/'Enemy Waves'!I2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>'Enemy Waves'!H3/Building!H$2</f>
+        <v>3.2174999999999998</v>
+      </c>
+      <c r="C3">
+        <f>'Enemy Waves'!H3/Building!H$2</f>
+        <v>3.2174999999999998</v>
+      </c>
+      <c r="D3">
+        <f>'Enemy Waves'!H3/Building!H$3</f>
+        <v>1.0725</v>
+      </c>
+      <c r="E3">
+        <f>'Enemy Waves'!H3/Building!H$4</f>
+        <v>0.40218749999999998</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f>Building!C$6/'Enemy Waves'!I3</f>
+        <v>5.4545454545454541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>'Enemy Waves'!H4/Building!H$2</f>
+        <v>4.3062500000000004</v>
+      </c>
+      <c r="C4">
+        <f>'Enemy Waves'!H4/Building!H$2</f>
+        <v>4.3062500000000004</v>
+      </c>
+      <c r="D4">
+        <f>'Enemy Waves'!H4/Building!H$3</f>
+        <v>1.4354166666666666</v>
+      </c>
+      <c r="E4">
+        <f>'Enemy Waves'!H4/Building!H$4</f>
+        <v>0.53828125000000004</v>
+      </c>
       <c r="J4">
-        <f>'Enemy Waves'!H4/G$2</f>
-        <v>4.3062500000000004</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <f>'Enemy Waves'!H4/G$2</f>
-        <v>4.3062500000000004</v>
-      </c>
-      <c r="L4">
-        <f>'Enemy Waves'!H4/G$3</f>
-        <v>1.4354166666666666</v>
-      </c>
-      <c r="M4">
-        <f>'Enemy Waves'!H4/G$4</f>
-        <v>0.53828125000000004</v>
+        <f>Building!C$6/'Enemy Waves'!I4</f>
+        <v>4.2857142857142856</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="B5" s="2"/>
-      <c r="I5" s="1">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="B5">
+        <f>'Enemy Waves'!H5/Building!H$2</f>
+        <v>6.2843750000000007</v>
+      </c>
+      <c r="C5">
+        <f>'Enemy Waves'!H5/Building!H$2</f>
+        <v>6.2843750000000007</v>
+      </c>
+      <c r="D5">
+        <f>'Enemy Waves'!H5/Building!H$3</f>
+        <v>2.0947916666666671</v>
+      </c>
+      <c r="E5">
+        <f>'Enemy Waves'!H5/Building!H$4</f>
+        <v>0.78554687500000009</v>
+      </c>
       <c r="J5">
-        <f>'Enemy Waves'!H5/G$2</f>
-        <v>6.2843750000000007</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <f>'Enemy Waves'!H5/G$2</f>
-        <v>6.2843750000000007</v>
-      </c>
-      <c r="L5">
-        <f>'Enemy Waves'!H5/G$3</f>
-        <v>2.0947916666666671</v>
-      </c>
-      <c r="M5">
-        <f>'Enemy Waves'!H5/G$4</f>
-        <v>0.78554687500000009</v>
+        <f>Building!C$6/'Enemy Waves'!I5</f>
+        <v>2.9268292682926829</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="2"/>
-      <c r="I6" s="2">
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
+      <c r="B6">
+        <f>'Enemy Waves'!H6/Building!H$2</f>
+        <v>11.424375000000001</v>
+      </c>
+      <c r="C6">
+        <f>'Enemy Waves'!H6/Building!H$2</f>
+        <v>11.424375000000001</v>
+      </c>
+      <c r="D6">
+        <f>'Enemy Waves'!H6/Building!H$3</f>
+        <v>3.8081250000000004</v>
+      </c>
+      <c r="E6">
+        <f>'Enemy Waves'!H6/Building!H$4</f>
+        <v>1.4280468750000002</v>
+      </c>
       <c r="J6">
-        <f>'Enemy Waves'!H6/G$2</f>
-        <v>11.424375000000001</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <f>'Enemy Waves'!H6/G$2</f>
-        <v>11.424375000000001</v>
-      </c>
-      <c r="L6">
-        <f>'Enemy Waves'!H6/G$3</f>
-        <v>3.8081250000000004</v>
-      </c>
-      <c r="M6">
-        <f>'Enemy Waves'!H6/G$4</f>
-        <v>1.4280468750000002</v>
+        <f>Building!C$6/'Enemy Waves'!I6</f>
+        <v>2.2222222222222223</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="2"/>
-      <c r="I7" s="1">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7">
+        <f>'Enemy Waves'!H7/Building!H$2</f>
+        <v>9.7212500000000013</v>
+      </c>
+      <c r="C7">
+        <f>'Enemy Waves'!H7/Building!H$2</f>
+        <v>9.7212500000000013</v>
+      </c>
+      <c r="D7">
+        <f>'Enemy Waves'!H7/Building!H$3</f>
+        <v>3.2404166666666674</v>
+      </c>
+      <c r="E7">
+        <f>'Enemy Waves'!H7/Building!H$4</f>
+        <v>1.2151562500000002</v>
+      </c>
       <c r="J7">
-        <f>'Enemy Waves'!H7/G$2</f>
-        <v>9.7212500000000013</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <f>'Enemy Waves'!H7/G$2</f>
-        <v>9.7212500000000013</v>
-      </c>
-      <c r="L7">
-        <f>'Enemy Waves'!H7/G$3</f>
-        <v>3.2404166666666674</v>
-      </c>
-      <c r="M7">
-        <f>'Enemy Waves'!H7/G$4</f>
-        <v>1.2151562500000002</v>
+        <f>Building!C$6/'Enemy Waves'!I7</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="2"/>
-      <c r="I8" s="2">
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
+      <c r="B8">
+        <f>'Enemy Waves'!H8/Building!H$2</f>
+        <v>10.1</v>
+      </c>
+      <c r="C8">
+        <f>'Enemy Waves'!H8/Building!H$2</f>
+        <v>10.1</v>
+      </c>
+      <c r="D8">
+        <f>'Enemy Waves'!H8/Building!H$3</f>
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="E8">
+        <f>'Enemy Waves'!H8/Building!H$4</f>
+        <v>1.2625</v>
+      </c>
       <c r="J8">
-        <f>'Enemy Waves'!H8/G$2</f>
-        <v>10.1</v>
+        <v>7</v>
       </c>
       <c r="K8">
-        <f>'Enemy Waves'!H8/G$2</f>
-        <v>10.1</v>
-      </c>
-      <c r="L8">
-        <f>'Enemy Waves'!H8/G$3</f>
-        <v>3.3666666666666667</v>
-      </c>
-      <c r="M8">
-        <f>'Enemy Waves'!H8/G$4</f>
-        <v>1.2625</v>
+        <f>Building!C$6/'Enemy Waves'!I8</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="2"/>
-      <c r="I9" s="1">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
+      <c r="B9">
+        <f>'Enemy Waves'!H9/Building!H$2</f>
+        <v>13.891249999999998</v>
+      </c>
+      <c r="C9">
+        <f>'Enemy Waves'!H9/Building!H$2</f>
+        <v>13.891249999999998</v>
+      </c>
+      <c r="D9">
+        <f>'Enemy Waves'!H9/Building!H$3</f>
+        <v>4.6304166666666662</v>
+      </c>
+      <c r="E9">
+        <f>'Enemy Waves'!H9/Building!H$4</f>
+        <v>1.7364062499999997</v>
+      </c>
       <c r="J9">
-        <f>'Enemy Waves'!H9/G$2</f>
-        <v>13.891249999999998</v>
+        <v>8</v>
       </c>
       <c r="K9">
-        <f>'Enemy Waves'!H9/G$2</f>
-        <v>13.891249999999998</v>
-      </c>
-      <c r="L9">
-        <f>'Enemy Waves'!H9/G$3</f>
-        <v>4.6304166666666662</v>
-      </c>
-      <c r="M9">
-        <f>'Enemy Waves'!H9/G$4</f>
-        <v>1.7364062499999997</v>
+        <f>Building!C$6/'Enemy Waves'!I9</f>
+        <v>1.5384615384615385</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="2"/>
-      <c r="I10" s="2">
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
+      <c r="B10">
+        <f>'Enemy Waves'!H10/Building!H$2</f>
+        <v>19.268750000000001</v>
+      </c>
+      <c r="C10">
+        <f>'Enemy Waves'!H10/Building!H$2</f>
+        <v>19.268750000000001</v>
+      </c>
+      <c r="D10">
+        <f>'Enemy Waves'!H10/Building!H$3</f>
+        <v>6.4229166666666666</v>
+      </c>
+      <c r="E10">
+        <f>'Enemy Waves'!H10/Building!H$4</f>
+        <v>2.4085937500000001</v>
+      </c>
       <c r="J10">
-        <f>'Enemy Waves'!H10/G$2</f>
-        <v>19.268750000000001</v>
+        <v>9</v>
       </c>
       <c r="K10">
-        <f>'Enemy Waves'!H10/G$2</f>
-        <v>19.268750000000001</v>
-      </c>
-      <c r="L10">
-        <f>'Enemy Waves'!H10/G$3</f>
-        <v>6.4229166666666666</v>
-      </c>
-      <c r="M10">
-        <f>'Enemy Waves'!H10/G$4</f>
-        <v>2.4085937500000001</v>
+        <f>Building!C$6/'Enemy Waves'!I10</f>
+        <v>1.263157894736842</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="B11" s="2"/>
-      <c r="I11" s="1">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
+      <c r="B11">
+        <f>'Enemy Waves'!H11/Building!H$3</f>
+        <v>11.31</v>
+      </c>
+      <c r="C11">
+        <f>'Enemy Waves'!H11/Building!H$2</f>
+        <v>33.93</v>
+      </c>
+      <c r="D11">
+        <f>'Enemy Waves'!H11/Building!H$3</f>
+        <v>11.31</v>
+      </c>
+      <c r="E11">
+        <f>'Enemy Waves'!H11/Building!H$4</f>
+        <v>4.24125</v>
+      </c>
       <c r="J11">
-        <f>'Enemy Waves'!H11/G$3</f>
-        <v>11.31</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <f>'Enemy Waves'!H11/G$2</f>
-        <v>33.93</v>
-      </c>
-      <c r="L11">
-        <f>'Enemy Waves'!H11/G$3</f>
-        <v>11.31</v>
-      </c>
-      <c r="M11">
-        <f>'Enemy Waves'!H11/G$4</f>
-        <v>4.24125</v>
+        <f>Building!C$7/'Enemy Waves'!I11</f>
+        <v>4.4444444444444446</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="B12" s="2"/>
-      <c r="I12" s="2">
+    <row r="12" spans="1:11">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
+      <c r="B12">
+        <f>'Enemy Waves'!H12/Building!H$3</f>
+        <v>7.1691666666666656</v>
+      </c>
+      <c r="C12">
+        <f>'Enemy Waves'!H12/Building!H$2</f>
+        <v>21.507499999999997</v>
+      </c>
+      <c r="D12">
+        <f>'Enemy Waves'!H12/Building!H$3</f>
+        <v>7.1691666666666656</v>
+      </c>
+      <c r="E12">
+        <f>'Enemy Waves'!H12/Building!H$4</f>
+        <v>2.6884374999999996</v>
+      </c>
       <c r="J12">
-        <f>'Enemy Waves'!H12/G$3</f>
-        <v>7.1691666666666656</v>
+        <v>11</v>
       </c>
       <c r="K12">
-        <f>'Enemy Waves'!H12/G$2</f>
-        <v>21.507499999999997</v>
-      </c>
-      <c r="L12">
-        <f>'Enemy Waves'!H12/G$3</f>
-        <v>7.1691666666666656</v>
-      </c>
-      <c r="M12">
-        <f>'Enemy Waves'!H12/G$4</f>
-        <v>2.6884374999999996</v>
+        <f>Building!C$7/'Enemy Waves'!I12</f>
+        <v>3.9603960396039604</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="B13" s="2"/>
-      <c r="I13" s="1">
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
+      <c r="B13">
+        <f>'Enemy Waves'!H13/Building!H$3</f>
+        <v>7.7268750000000006</v>
+      </c>
+      <c r="C13">
+        <f>'Enemy Waves'!H13/Building!H$2</f>
+        <v>23.180625000000003</v>
+      </c>
+      <c r="D13">
+        <f>'Enemy Waves'!H13/Building!H$3</f>
+        <v>7.7268750000000006</v>
+      </c>
+      <c r="E13">
+        <f>'Enemy Waves'!H13/Building!H$4</f>
+        <v>2.8975781250000003</v>
+      </c>
       <c r="J13">
-        <f>'Enemy Waves'!H13/G$3</f>
-        <v>7.7268750000000006</v>
+        <v>12</v>
       </c>
       <c r="K13">
-        <f>'Enemy Waves'!H13/G$2</f>
-        <v>23.180625000000003</v>
-      </c>
-      <c r="L13">
-        <f>'Enemy Waves'!H13/G$3</f>
-        <v>7.7268750000000006</v>
-      </c>
-      <c r="M13">
-        <f>'Enemy Waves'!H13/G$4</f>
-        <v>2.8975781250000003</v>
+        <f>Building!C$7/'Enemy Waves'!I13</f>
+        <v>3.7037037037037037</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="B14" s="2"/>
-      <c r="I14" s="2">
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
+      <c r="B14">
+        <f>'Enemy Waves'!H14/Building!H$3</f>
+        <v>8.8741666666666656</v>
+      </c>
+      <c r="C14">
+        <f>'Enemy Waves'!H14/Building!H$2</f>
+        <v>26.622499999999999</v>
+      </c>
+      <c r="D14">
+        <f>'Enemy Waves'!H14/Building!H$3</f>
+        <v>8.8741666666666656</v>
+      </c>
+      <c r="E14">
+        <f>'Enemy Waves'!H14/Building!H$4</f>
+        <v>3.3278124999999998</v>
+      </c>
       <c r="J14">
-        <f>'Enemy Waves'!H14/G$3</f>
-        <v>8.8741666666666656</v>
+        <v>13</v>
       </c>
       <c r="K14">
-        <f>'Enemy Waves'!H14/G$2</f>
-        <v>26.622499999999999</v>
-      </c>
-      <c r="L14">
-        <f>'Enemy Waves'!H14/G$3</f>
-        <v>8.8741666666666656</v>
-      </c>
-      <c r="M14">
-        <f>'Enemy Waves'!H14/G$4</f>
-        <v>3.3278124999999998</v>
+        <f>Building!C$7/'Enemy Waves'!I14</f>
+        <v>3.3057851239669422</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="B15" s="2"/>
-      <c r="I15" s="1">
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
+      <c r="B15">
+        <f>'Enemy Waves'!H15/Building!H$3</f>
+        <v>10.236666666666668</v>
+      </c>
+      <c r="C15">
+        <f>'Enemy Waves'!H15/Building!H$2</f>
+        <v>30.71</v>
+      </c>
+      <c r="D15">
+        <f>'Enemy Waves'!H15/Building!H$3</f>
+        <v>10.236666666666668</v>
+      </c>
+      <c r="E15">
+        <f>'Enemy Waves'!H15/Building!H$4</f>
+        <v>3.8387500000000001</v>
+      </c>
       <c r="J15">
-        <f>'Enemy Waves'!H15/G$3</f>
-        <v>10.236666666666668</v>
+        <v>14</v>
       </c>
       <c r="K15">
-        <f>'Enemy Waves'!H15/G$2</f>
-        <v>30.71</v>
-      </c>
-      <c r="L15">
-        <f>'Enemy Waves'!H15/G$3</f>
-        <v>10.236666666666668</v>
-      </c>
-      <c r="M15">
-        <f>'Enemy Waves'!H15/G$4</f>
-        <v>3.8387500000000001</v>
+        <f>Building!C$7/'Enemy Waves'!I15</f>
+        <v>2.9197080291970803</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="B16" s="2"/>
-      <c r="I16" s="2">
+    <row r="16" spans="1:11">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
+      <c r="B16">
+        <f>'Enemy Waves'!H16/Building!H$3</f>
+        <v>17.733333333333334</v>
+      </c>
+      <c r="C16">
+        <f>'Enemy Waves'!H16/Building!H$2</f>
+        <v>53.2</v>
+      </c>
+      <c r="D16">
+        <f>'Enemy Waves'!H16/Building!H$3</f>
+        <v>17.733333333333334</v>
+      </c>
+      <c r="E16">
+        <f>'Enemy Waves'!H16/Building!H$4</f>
+        <v>6.65</v>
+      </c>
       <c r="J16">
-        <f>'Enemy Waves'!H16/G$3</f>
-        <v>17.733333333333334</v>
+        <v>15</v>
       </c>
       <c r="K16">
-        <f>'Enemy Waves'!H16/G$2</f>
-        <v>53.2</v>
-      </c>
-      <c r="L16">
-        <f>'Enemy Waves'!H16/G$3</f>
-        <v>17.733333333333334</v>
-      </c>
-      <c r="M16">
-        <f>'Enemy Waves'!H16/G$4</f>
-        <v>6.65</v>
+        <f>Building!C$7/'Enemy Waves'!I16</f>
+        <v>2.0408163265306123</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="B17" s="2"/>
-      <c r="I17" s="1">
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
+      <c r="B17">
+        <f>'Enemy Waves'!H17/Building!H$3</f>
+        <v>16.64</v>
+      </c>
+      <c r="C17">
+        <f>'Enemy Waves'!H17/Building!H$2</f>
+        <v>49.919999999999995</v>
+      </c>
+      <c r="D17">
+        <f>'Enemy Waves'!H17/Building!H$3</f>
+        <v>16.64</v>
+      </c>
+      <c r="E17">
+        <f>'Enemy Waves'!H17/Building!H$4</f>
+        <v>6.2399999999999993</v>
+      </c>
       <c r="J17">
-        <f>'Enemy Waves'!H17/G$3</f>
-        <v>16.64</v>
+        <v>16</v>
       </c>
       <c r="K17">
-        <f>'Enemy Waves'!H17/G$2</f>
-        <v>49.919999999999995</v>
-      </c>
-      <c r="L17">
-        <f>'Enemy Waves'!H17/G$3</f>
-        <v>16.64</v>
-      </c>
-      <c r="M17">
-        <f>'Enemy Waves'!H17/G$4</f>
-        <v>6.2399999999999993</v>
+        <f>Building!C$7/'Enemy Waves'!I17</f>
+        <v>2.0833333333333335</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="2">
+    <row r="18" spans="1:11">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
+      <c r="B18">
+        <f>'Enemy Waves'!H18/Building!H$3</f>
+        <v>17.829166666666666</v>
+      </c>
+      <c r="C18">
+        <f>'Enemy Waves'!H18/Building!H$2</f>
+        <v>53.487499999999997</v>
+      </c>
+      <c r="D18">
+        <f>'Enemy Waves'!H18/Building!H$3</f>
+        <v>17.829166666666666</v>
+      </c>
+      <c r="E18">
+        <f>'Enemy Waves'!H18/Building!H$4</f>
+        <v>6.6859374999999996</v>
+      </c>
       <c r="J18">
-        <f>'Enemy Waves'!H18/G$3</f>
-        <v>17.829166666666666</v>
+        <v>17</v>
       </c>
       <c r="K18">
-        <f>'Enemy Waves'!H18/G$2</f>
-        <v>53.487499999999997</v>
-      </c>
-      <c r="L18">
-        <f>'Enemy Waves'!H18/G$3</f>
-        <v>17.829166666666666</v>
-      </c>
-      <c r="M18">
-        <f>'Enemy Waves'!H18/G$4</f>
-        <v>6.6859374999999996</v>
+        <f>Building!C$7/'Enemy Waves'!I18</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>120</v>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f>'Enemy Waves'!H19/Building!H$3</f>
+        <v>20.677083333333332</v>
+      </c>
+      <c r="C19">
+        <f>'Enemy Waves'!H19/Building!H$2</f>
+        <v>62.03125</v>
+      </c>
+      <c r="D19">
+        <f>'Enemy Waves'!H19/Building!H$3</f>
+        <v>20.677083333333332</v>
       </c>
       <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <f>C$19/'Enemy Waves'!I2</f>
-        <v>6</v>
-      </c>
-      <c r="I19" s="1">
+        <f>'Enemy Waves'!H19/Building!H$4</f>
+        <v>7.75390625</v>
+      </c>
+      <c r="J19">
         <v>18</v>
       </c>
-      <c r="J19">
-        <f>'Enemy Waves'!H19/G$3</f>
-        <v>20.677083333333332</v>
-      </c>
       <c r="K19">
-        <f>'Enemy Waves'!H19/G$2</f>
-        <v>62.03125</v>
-      </c>
-      <c r="L19">
-        <f>'Enemy Waves'!H19/G$3</f>
-        <v>20.677083333333332</v>
-      </c>
-      <c r="M19">
-        <f>'Enemy Waves'!H19/G$4</f>
-        <v>7.75390625</v>
+        <f>Building!C$7/'Enemy Waves'!I19</f>
+        <v>1.7391304347826086</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
-        <v>400</v>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f>'Enemy Waves'!H20/Building!H$3</f>
+        <v>22.625</v>
+      </c>
+      <c r="C20">
+        <f>'Enemy Waves'!H20/Building!H$2</f>
+        <v>67.875</v>
+      </c>
+      <c r="D20">
+        <f>'Enemy Waves'!H20/Building!H$3</f>
+        <v>22.625</v>
       </c>
       <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <f>C$19/'Enemy Waves'!I3</f>
-        <v>5.4545454545454541</v>
-      </c>
-      <c r="I20" s="2">
+        <f>'Enemy Waves'!H20/Building!H$4</f>
+        <v>8.484375</v>
+      </c>
+      <c r="J20">
         <v>19</v>
       </c>
-      <c r="J20">
-        <f>'Enemy Waves'!H20/G$3</f>
-        <v>22.625</v>
-      </c>
       <c r="K20">
-        <f>'Enemy Waves'!H20/G$2</f>
-        <v>67.875</v>
-      </c>
-      <c r="L20">
-        <f>'Enemy Waves'!H20/G$3</f>
-        <v>22.625</v>
-      </c>
-      <c r="M20">
-        <f>'Enemy Waves'!H20/G$4</f>
-        <v>8.484375</v>
+        <f>Building!C$7/'Enemy Waves'!I20</f>
+        <v>1.606425702811245</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="1">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1">
-        <v>700</v>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f>'Enemy Waves'!H21/Building!H$4</f>
+        <v>11.133671875000001</v>
+      </c>
+      <c r="C21">
+        <f>'Enemy Waves'!H21/Building!H$2</f>
+        <v>89.069375000000008</v>
+      </c>
+      <c r="D21">
+        <f>'Enemy Waves'!H21/Building!H$3</f>
+        <v>29.689791666666668</v>
       </c>
       <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <f>C$19/'Enemy Waves'!I4</f>
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="I21" s="1">
+        <f>'Enemy Waves'!H21/Building!H$4</f>
+        <v>11.133671875000001</v>
+      </c>
+      <c r="J21">
         <v>20</v>
       </c>
-      <c r="J21">
-        <f>'Enemy Waves'!H21/G$4</f>
-        <v>11.133671875000001</v>
-      </c>
       <c r="K21">
-        <f>'Enemy Waves'!H21/G$2</f>
-        <v>89.069375000000008</v>
-      </c>
-      <c r="L21">
-        <f>'Enemy Waves'!H21/G$3</f>
-        <v>29.689791666666668</v>
-      </c>
-      <c r="M21">
-        <f>'Enemy Waves'!H21/G$4</f>
-        <v>11.133671875000001</v>
+        <f>Building!C$8/'Enemy Waves'!I21</f>
+        <v>2.8925619834710745</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:11">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f>'Enemy Waves'!H22/Building!H$4</f>
+        <v>9.9928124999999977</v>
+      </c>
+      <c r="C22">
+        <f>'Enemy Waves'!H22/Building!H$2</f>
+        <v>79.942499999999981</v>
+      </c>
+      <c r="D22">
+        <f>'Enemy Waves'!H22/Building!H$3</f>
+        <v>26.647499999999997</v>
+      </c>
       <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <f>C$19/'Enemy Waves'!I5</f>
-        <v>2.9268292682926829</v>
-      </c>
-      <c r="I22" s="2">
+        <f>'Enemy Waves'!H22/Building!H$4</f>
+        <v>9.9928124999999977</v>
+      </c>
+      <c r="J22">
         <v>21</v>
       </c>
-      <c r="J22">
-        <f>'Enemy Waves'!H22/G$4</f>
-        <v>9.9928124999999977</v>
-      </c>
       <c r="K22">
-        <f>'Enemy Waves'!H22/G$2</f>
-        <v>79.942499999999981</v>
-      </c>
-      <c r="L22">
-        <f>'Enemy Waves'!H22/G$3</f>
-        <v>26.647499999999997</v>
-      </c>
-      <c r="M22">
-        <f>'Enemy Waves'!H22/G$4</f>
-        <v>9.9928124999999977</v>
+        <f>Building!C$8/'Enemy Waves'!I22</f>
+        <v>2.6819923371647509</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f>'Enemy Waves'!H23/Building!H$4</f>
+        <v>10.5253125</v>
+      </c>
+      <c r="C23">
+        <f>'Enemy Waves'!H23/Building!H$2</f>
+        <v>84.202500000000001</v>
+      </c>
+      <c r="D23">
+        <f>'Enemy Waves'!H23/Building!H$3</f>
+        <v>28.067499999999999</v>
+      </c>
       <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23">
-        <f>C$19/'Enemy Waves'!I6</f>
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="I23" s="1">
+        <f>'Enemy Waves'!H23/Building!H$4</f>
+        <v>10.5253125</v>
+      </c>
+      <c r="J23">
         <v>22</v>
       </c>
-      <c r="J23">
-        <f>'Enemy Waves'!H23/G$4</f>
-        <v>10.5253125</v>
-      </c>
       <c r="K23">
-        <f>'Enemy Waves'!H23/G$2</f>
-        <v>84.202500000000001</v>
-      </c>
-      <c r="L23">
-        <f>'Enemy Waves'!H23/G$3</f>
-        <v>28.067499999999999</v>
-      </c>
-      <c r="M23">
-        <f>'Enemy Waves'!H23/G$4</f>
-        <v>10.5253125</v>
+        <f>Building!C$8/'Enemy Waves'!I23</f>
+        <v>2.5925925925925926</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:11">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f>'Enemy Waves'!H24/Building!H$4</f>
+        <v>11.066249999999998</v>
+      </c>
+      <c r="C24">
+        <f>'Enemy Waves'!H24/Building!H$2</f>
+        <v>88.529999999999987</v>
+      </c>
+      <c r="D24">
+        <f>'Enemy Waves'!H24/Building!H$3</f>
+        <v>29.509999999999994</v>
+      </c>
       <c r="E24">
-        <v>6</v>
-      </c>
-      <c r="F24">
-        <f>C$19/'Enemy Waves'!I7</f>
-        <v>2</v>
-      </c>
-      <c r="I24" s="2">
+        <f>'Enemy Waves'!H24/Building!H$4</f>
+        <v>11.066249999999998</v>
+      </c>
+      <c r="J24">
         <v>23</v>
       </c>
-      <c r="J24">
-        <f>'Enemy Waves'!H24/G$4</f>
-        <v>11.066249999999998</v>
-      </c>
       <c r="K24">
-        <f>'Enemy Waves'!H24/G$2</f>
-        <v>88.529999999999987</v>
-      </c>
-      <c r="L24">
-        <f>'Enemy Waves'!H24/G$3</f>
-        <v>29.509999999999994</v>
-      </c>
-      <c r="M24">
-        <f>'Enemy Waves'!H24/G$4</f>
-        <v>11.066249999999998</v>
+        <f>Building!C$8/'Enemy Waves'!I24</f>
+        <v>2.4475524475524475</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f>'Enemy Waves'!H25/Building!H$4</f>
+        <v>11.9859375</v>
+      </c>
+      <c r="C25">
+        <f>'Enemy Waves'!H25/Building!H$2</f>
+        <v>95.887500000000003</v>
+      </c>
+      <c r="D25">
+        <f>'Enemy Waves'!H25/Building!H$3</f>
+        <v>31.962499999999999</v>
+      </c>
       <c r="E25">
-        <v>7</v>
-      </c>
-      <c r="F25">
-        <f>C$19/'Enemy Waves'!I8</f>
-        <v>2</v>
-      </c>
-      <c r="I25" s="1">
+        <f>'Enemy Waves'!H25/Building!H$4</f>
+        <v>11.9859375</v>
+      </c>
+      <c r="J25">
         <v>24</v>
       </c>
-      <c r="J25">
-        <f>'Enemy Waves'!H25/G$4</f>
-        <v>11.9859375</v>
-      </c>
       <c r="K25">
-        <f>'Enemy Waves'!H25/G$2</f>
-        <v>95.887500000000003</v>
-      </c>
-      <c r="L25">
-        <f>'Enemy Waves'!H25/G$3</f>
-        <v>31.962499999999999</v>
-      </c>
-      <c r="M25">
-        <f>'Enemy Waves'!H25/G$4</f>
-        <v>11.9859375</v>
+        <f>Building!C$8/'Enemy Waves'!I25</f>
+        <v>2.2875816993464051</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:11">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f>'Enemy Waves'!H26/Building!H$4</f>
+        <v>17.554062500000001</v>
+      </c>
+      <c r="C26">
+        <f>'Enemy Waves'!H26/Building!H$2</f>
+        <v>140.4325</v>
+      </c>
+      <c r="D26">
+        <f>'Enemy Waves'!H26/Building!H$3</f>
+        <v>46.810833333333335</v>
+      </c>
       <c r="E26">
-        <v>8</v>
-      </c>
-      <c r="F26">
-        <f>C$19/'Enemy Waves'!I9</f>
-        <v>1.5384615384615385</v>
-      </c>
-      <c r="I26" s="2">
+        <f>'Enemy Waves'!H26/Building!H$4</f>
+        <v>17.554062500000001</v>
+      </c>
+      <c r="J26">
         <v>25</v>
       </c>
-      <c r="J26">
-        <f>'Enemy Waves'!H26/G$4</f>
-        <v>17.554062500000001</v>
-      </c>
       <c r="K26">
-        <f>'Enemy Waves'!H26/G$2</f>
-        <v>140.4325</v>
-      </c>
-      <c r="L26">
-        <f>'Enemy Waves'!H26/G$3</f>
-        <v>46.810833333333335</v>
-      </c>
-      <c r="M26">
-        <f>'Enemy Waves'!H26/G$4</f>
-        <v>17.554062500000001</v>
+        <f>Building!C$8/'Enemy Waves'!I26</f>
+        <v>1.856763925729443</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f>'Enemy Waves'!H27/Building!H$4</f>
+        <v>14.804374999999999</v>
+      </c>
+      <c r="C27">
+        <f>'Enemy Waves'!H27/Building!H$2</f>
+        <v>118.43499999999999</v>
+      </c>
+      <c r="D27">
+        <f>'Enemy Waves'!H27/Building!H$3</f>
+        <v>39.478333333333332</v>
+      </c>
       <c r="E27">
-        <v>9</v>
-      </c>
-      <c r="F27">
-        <f>C$19/'Enemy Waves'!I10</f>
-        <v>1.263157894736842</v>
-      </c>
-      <c r="I27" s="1">
+        <f>'Enemy Waves'!H27/Building!H$4</f>
+        <v>14.804374999999999</v>
+      </c>
+      <c r="J27">
         <v>26</v>
       </c>
-      <c r="J27">
-        <f>'Enemy Waves'!H27/G$4</f>
-        <v>14.804374999999999</v>
-      </c>
       <c r="K27">
-        <f>'Enemy Waves'!H27/G$2</f>
-        <v>118.43499999999999</v>
-      </c>
-      <c r="L27">
-        <f>'Enemy Waves'!H27/G$3</f>
-        <v>39.478333333333332</v>
-      </c>
-      <c r="M27">
-        <f>'Enemy Waves'!H27/G$4</f>
-        <v>14.804374999999999</v>
+        <f>Building!C$8/'Enemy Waves'!I27</f>
+        <v>1.881720430107527</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:11">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f>'Enemy Waves'!H28/Building!H$4</f>
+        <v>15.414687499999998</v>
+      </c>
+      <c r="C28">
+        <f>'Enemy Waves'!H28/Building!H$2</f>
+        <v>123.31749999999998</v>
+      </c>
+      <c r="D28">
+        <f>'Enemy Waves'!H28/Building!H$3</f>
+        <v>41.105833333333329</v>
+      </c>
       <c r="E28">
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <f>C$20/'Enemy Waves'!I11</f>
-        <v>4.4444444444444446</v>
-      </c>
-      <c r="I28" s="2">
+        <f>'Enemy Waves'!H28/Building!H$4</f>
+        <v>15.414687499999998</v>
+      </c>
+      <c r="J28">
         <v>27</v>
       </c>
-      <c r="J28">
-        <f>'Enemy Waves'!H28/G$4</f>
-        <v>15.414687499999998</v>
-      </c>
       <c r="K28">
-        <f>'Enemy Waves'!H28/G$2</f>
-        <v>123.31749999999998</v>
-      </c>
-      <c r="L28">
-        <f>'Enemy Waves'!H28/G$3</f>
-        <v>41.105833333333329</v>
-      </c>
-      <c r="M28">
-        <f>'Enemy Waves'!H28/G$4</f>
-        <v>15.414687499999998</v>
+        <f>Building!C$8/'Enemy Waves'!I28</f>
+        <v>1.8324607329842932</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f>'Enemy Waves'!H29/Building!H$4</f>
+        <v>16.672499999999999</v>
+      </c>
+      <c r="C29">
+        <f>'Enemy Waves'!H29/Building!H$2</f>
+        <v>133.38</v>
+      </c>
+      <c r="D29">
+        <f>'Enemy Waves'!H29/Building!H$3</f>
+        <v>44.459999999999994</v>
+      </c>
       <c r="E29">
-        <v>11</v>
-      </c>
-      <c r="F29">
-        <f>C$20/'Enemy Waves'!I12</f>
-        <v>3.9603960396039604</v>
-      </c>
-      <c r="I29" s="1">
+        <f>'Enemy Waves'!H29/Building!H$4</f>
+        <v>16.672499999999999</v>
+      </c>
+      <c r="J29">
         <v>28</v>
       </c>
-      <c r="J29">
-        <f>'Enemy Waves'!H29/G$4</f>
-        <v>16.672499999999999</v>
-      </c>
       <c r="K29">
-        <f>'Enemy Waves'!H29/G$2</f>
-        <v>133.38</v>
-      </c>
-      <c r="L29">
-        <f>'Enemy Waves'!H29/G$3</f>
-        <v>44.459999999999994</v>
-      </c>
-      <c r="M29">
-        <f>'Enemy Waves'!H29/G$4</f>
-        <v>16.672499999999999</v>
+        <f>Building!C$8/'Enemy Waves'!I29</f>
+        <v>1.7156862745098038</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:11">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f>'Enemy Waves'!H30/Building!H$4</f>
+        <v>17.317812499999999</v>
+      </c>
+      <c r="C30">
+        <f>'Enemy Waves'!H30/Building!H$2</f>
+        <v>138.54249999999999</v>
+      </c>
+      <c r="D30">
+        <f>'Enemy Waves'!H30/Building!H$3</f>
+        <v>46.180833333333332</v>
+      </c>
       <c r="E30">
-        <v>12</v>
-      </c>
-      <c r="F30">
-        <f>C$20/'Enemy Waves'!I13</f>
-        <v>3.7037037037037037</v>
-      </c>
-      <c r="I30" s="2">
+        <f>'Enemy Waves'!H30/Building!H$4</f>
+        <v>17.317812499999999</v>
+      </c>
+      <c r="J30">
         <v>29</v>
       </c>
-      <c r="J30">
-        <f>'Enemy Waves'!H30/G$4</f>
-        <v>17.317812499999999</v>
-      </c>
       <c r="K30">
-        <f>'Enemy Waves'!H30/G$2</f>
-        <v>138.54249999999999</v>
-      </c>
-      <c r="L30">
-        <f>'Enemy Waves'!H30/G$3</f>
-        <v>46.180833333333332</v>
-      </c>
-      <c r="M30">
-        <f>'Enemy Waves'!H30/G$4</f>
-        <v>17.317812499999999</v>
+        <f>Building!C$8/'Enemy Waves'!I30</f>
+        <v>1.6431924882629108</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:11">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f>'Enemy Waves'!H31/Building!H$4</f>
+        <v>20.848124999999996</v>
+      </c>
+      <c r="C31">
+        <f>'Enemy Waves'!H31/Building!H$2</f>
+        <v>166.78499999999997</v>
+      </c>
+      <c r="D31">
+        <f>'Enemy Waves'!H31/Building!H$3</f>
+        <v>55.594999999999992</v>
+      </c>
       <c r="E31">
-        <v>13</v>
-      </c>
-      <c r="F31">
-        <f>C$20/'Enemy Waves'!I14</f>
-        <v>3.3057851239669422</v>
-      </c>
-      <c r="I31" s="2">
+        <f>'Enemy Waves'!H31/Building!H$4</f>
+        <v>20.848124999999996</v>
+      </c>
+      <c r="J31">
         <v>30</v>
       </c>
-      <c r="J31">
-        <f>'Enemy Waves'!H31/G$4</f>
-        <v>20.848124999999996</v>
-      </c>
       <c r="K31">
-        <f>'Enemy Waves'!H31/G$2</f>
-        <v>166.78499999999997</v>
-      </c>
-      <c r="L31">
-        <f>'Enemy Waves'!H31/G$3</f>
-        <v>55.594999999999992</v>
-      </c>
-      <c r="M31">
-        <f>'Enemy Waves'!H31/G$4</f>
-        <v>20.848124999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="E32">
-        <v>14</v>
-      </c>
-      <c r="F32">
-        <f>C$20/'Enemy Waves'!I15</f>
-        <v>2.9197080291970803</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6">
-      <c r="E33">
-        <v>15</v>
-      </c>
-      <c r="F33">
-        <f>C$20/'Enemy Waves'!I16</f>
-        <v>2.0408163265306123</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6">
-      <c r="E34">
-        <v>16</v>
-      </c>
-      <c r="F34">
-        <f>C$20/'Enemy Waves'!I17</f>
-        <v>2.0833333333333335</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6">
-      <c r="E35">
-        <v>17</v>
-      </c>
-      <c r="F35">
-        <f>C$20/'Enemy Waves'!I18</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6">
-      <c r="E36">
-        <v>18</v>
-      </c>
-      <c r="F36">
-        <f>C$20/'Enemy Waves'!I19</f>
-        <v>1.7391304347826086</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6">
-      <c r="E37">
-        <v>19</v>
-      </c>
-      <c r="F37">
-        <f>C$20/'Enemy Waves'!I20</f>
-        <v>1.606425702811245</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6">
-      <c r="E38">
-        <v>20</v>
-      </c>
-      <c r="F38">
-        <f>C$21/'Enemy Waves'!I21</f>
-        <v>2.8925619834710745</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6">
-      <c r="E39">
-        <v>21</v>
-      </c>
-      <c r="F39">
-        <f>C$21/'Enemy Waves'!I22</f>
-        <v>2.6819923371647509</v>
-      </c>
-    </row>
-    <row r="40" spans="5:6">
-      <c r="E40">
-        <v>22</v>
-      </c>
-      <c r="F40">
-        <f>C$21/'Enemy Waves'!I23</f>
-        <v>2.5925925925925926</v>
-      </c>
-    </row>
-    <row r="41" spans="5:6">
-      <c r="E41">
-        <v>23</v>
-      </c>
-      <c r="F41">
-        <f>C$21/'Enemy Waves'!I24</f>
-        <v>2.4475524475524475</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6">
-      <c r="E42">
-        <v>24</v>
-      </c>
-      <c r="F42">
-        <f>C$21/'Enemy Waves'!I25</f>
-        <v>2.2875816993464051</v>
-      </c>
-    </row>
-    <row r="43" spans="5:6">
-      <c r="E43">
-        <v>25</v>
-      </c>
-      <c r="F43">
-        <f>C$21/'Enemy Waves'!I26</f>
-        <v>1.856763925729443</v>
-      </c>
-    </row>
-    <row r="44" spans="5:6">
-      <c r="E44">
-        <v>26</v>
-      </c>
-      <c r="F44">
-        <f>C$21/'Enemy Waves'!I27</f>
-        <v>1.881720430107527</v>
-      </c>
-    </row>
-    <row r="45" spans="5:6">
-      <c r="E45">
-        <v>27</v>
-      </c>
-      <c r="F45">
-        <f>C$21/'Enemy Waves'!I28</f>
-        <v>1.8324607329842932</v>
-      </c>
-    </row>
-    <row r="46" spans="5:6">
-      <c r="E46">
-        <v>28</v>
-      </c>
-      <c r="F46">
-        <f>C$21/'Enemy Waves'!I29</f>
-        <v>1.7156862745098038</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6">
-      <c r="E47">
-        <v>29</v>
-      </c>
-      <c r="F47">
-        <f>C$21/'Enemy Waves'!I30</f>
-        <v>1.6431924882629108</v>
-      </c>
-    </row>
-    <row r="48" spans="5:6">
-      <c r="E48">
-        <v>30</v>
-      </c>
-      <c r="F48">
-        <f>C$21/'Enemy Waves'!I31</f>
+        <f>Building!C$8/'Enemy Waves'!I31</f>
         <v>1.8617021276595744</v>
       </c>
     </row>
